--- a/data/case1_reportxx.xlsx
+++ b/data/case1_reportxx.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>caseId</t>
   </si>
@@ -89,13 +89,16 @@
     <t>{"app_id":"788730441162706944","app_secret":"vtysJXstynJpIlEudO","grant_type":"client_credentials"}</t>
   </si>
   <si>
+    <t>access_token</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"364054c0-300b-46c2-b74b-3cdf81b8f228","scope":"token","token_type":"bearer","expires_in":6955}}</t>
-  </si>
-  <si>
-    <t>0.058685</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"da8ed184-4705-4755-9f70-fe6dd02d6793","scope":"token","token_type":"bearer","expires_in":6026}}</t>
+  </si>
+  <si>
+    <t>0.048762</t>
   </si>
   <si>
     <t>pass</t>
@@ -113,6 +116,9 @@
     <t>获取企业用户信息-正常</t>
   </si>
   <si>
+    <t>post1</t>
+  </si>
+  <si>
     <t>http://192.168.1.206:9000/api/v1/user/company/userinfo</t>
   </si>
   <si>
@@ -122,10 +128,7 @@
     <t>{"user_id": "10788733057439518720"}</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
-  </si>
-  <si>
-    <t>0.059617</t>
+    <t>company_user_info</t>
   </si>
   <si>
     <t>c03</t>
@@ -140,10 +143,13 @@
     <t>{"user_id": "10788733057439518888"}</t>
   </si>
   <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.041793</t>
+    <t>0.052278</t>
   </si>
   <si>
     <t>c04</t>
@@ -167,10 +173,13 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"4844bce2e263b87314306e184e126b3a"}}</t>
-  </si>
-  <si>
-    <t>0.108848</t>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"e3061141fd0b296b1b3d07613da109a6"}}</t>
+  </si>
+  <si>
+    <t>0.098539</t>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
@@ -195,10 +204,13 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"5e06ffc9867e9437c14017185b0c05eb"}}</t>
-  </si>
-  <si>
-    <t>0.199398</t>
+    <t>seal_id</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"b6a474832ded03d26c76e47a93e48772"}}</t>
+  </si>
+  <si>
+    <t>0.111741</t>
   </si>
   <si>
     <t>c06</t>
@@ -207,7 +219,7 @@
     <t>下载文件-正常</t>
   </si>
   <si>
-    <t>get</t>
+    <t>GET</t>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/file/download</t>
@@ -216,10 +228,13 @@
     <t>{"fileId":"${seal_file_id}","token":"${token}"}</t>
   </si>
   <si>
+    <t>png</t>
+  </si>
+  <si>
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.03429</t>
+    <t>0.047199</t>
   </si>
 </sst>
 </file>
@@ -644,201 +659,204 @@
       <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -847,20 +865,23 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s">
-        <v>65</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s"/>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
